--- a/document/testcase/TestCaseLogin.xlsx
+++ b/document/testcase/TestCaseLogin.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hoang Long\OneDrive\Máy tính\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nam3\HK2\CNPM\DoAn\GymWeb\document\testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -92,9 +92,6 @@
     <t>Pass / Fail / Not executed / Suspended</t>
   </si>
   <si>
-    <t>Navigate to http://demo.guru99.com</t>
-  </si>
-  <si>
     <t>Site should open</t>
   </si>
   <si>
@@ -159,6 +156,9 @@
   </si>
   <si>
     <t>Enable unikey</t>
+  </si>
+  <si>
+    <t>Navigate to   http://localhost:3000/signin</t>
   </si>
 </sst>
 </file>
@@ -168,7 +168,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmmm\ d\,\ yyyy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,6 +217,14 @@
       <family val="1"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -366,158 +374,163 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
@@ -800,7 +813,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -810,473 +823,485 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="35"/>
+      <c r="F1" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="35"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="35"/>
+      <c r="J2" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="50"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="44"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="44"/>
+      <c r="C6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="44"/>
+      <c r="F6" s="46">
+        <v>44382</v>
+      </c>
+      <c r="G6" s="47"/>
+      <c r="H6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="44"/>
+      <c r="J6" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="48"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11">
         <v>1</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="6"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="B9" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="18">
+        <v>1</v>
+      </c>
+      <c r="G9" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="42"/>
+      <c r="I9" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="15"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+    </row>
+    <row r="10" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11">
         <v>2</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
+      <c r="B10" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C10" s="27"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="15"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="11">
         <v>3</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="7" t="s">
+      <c r="B11" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="20">
+        <v>2</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="15"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="11">
         <v>4</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="6"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="6"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="6"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="6"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="17">
-        <v>44382</v>
-      </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="19" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="15"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="20">
+        <v>3</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="15"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F14" s="21"/>
+      <c r="G14" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="15"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F15" s="22">
+        <v>4</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="15"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F16" s="23"/>
+      <c r="G16" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" s="15"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="31"/>
+      <c r="D21" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="34"/>
+      <c r="F21" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="31"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="11">
+        <v>1</v>
+      </c>
+      <c r="B23" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="24"/>
+      <c r="F23" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="27"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="19"/>
-      <c r="L6" s="6"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="6"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="6"/>
-    </row>
-    <row r="9" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="26">
-        <v>1</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="47">
-        <v>1</v>
-      </c>
-      <c r="G9" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="50"/>
-      <c r="I9" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="39"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-    </row>
-    <row r="10" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="26">
+      <c r="J23" s="27"/>
+      <c r="K23" s="28"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="11">
         <v>2</v>
       </c>
-      <c r="B10" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" s="39"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="26">
+      <c r="B24" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="24"/>
+      <c r="F24" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="27"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24" s="27"/>
+      <c r="K24" s="28"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="11">
         <v>3</v>
       </c>
-      <c r="B11" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="45">
-        <v>2</v>
-      </c>
-      <c r="G11" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="J11" s="39"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="6"/>
-    </row>
-    <row r="12" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="26">
-        <v>4</v>
-      </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="J12" s="39"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="6"/>
-    </row>
-    <row r="13" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="45">
-        <v>3</v>
-      </c>
-      <c r="G13" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="39"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="6"/>
-    </row>
-    <row r="14" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F14" s="46"/>
-      <c r="G14" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="J14" s="39"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="6"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="F15" s="43">
-        <v>4</v>
-      </c>
-      <c r="G15" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="J15" s="39"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="6"/>
-    </row>
-    <row r="16" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F16" s="44"/>
-      <c r="G16" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="J16" s="39"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="6"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L17" s="6"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L18" s="6"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="6"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="32"/>
-      <c r="F21" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="30"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="26">
-        <v>1</v>
-      </c>
-      <c r="B23" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="35"/>
-      <c r="F23" s="27" t="s">
+      <c r="B25" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="27" t="s">
+      <c r="C25" s="25"/>
+      <c r="D25" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="24"/>
+      <c r="F25" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="27"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="J23" s="4"/>
-      <c r="K23" s="5"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="26">
-        <v>2</v>
-      </c>
-      <c r="B24" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="37"/>
-      <c r="D24" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="35"/>
-      <c r="F24" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="J24" s="4"/>
-      <c r="K24" s="5"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="26">
-        <v>3</v>
-      </c>
-      <c r="B25" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="35"/>
-      <c r="F25" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="J25" s="4"/>
-      <c r="K25" s="5"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="M9:N10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="F21:H22"/>
+    <mergeCell ref="I21:K22"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:C22"/>
+    <mergeCell ref="D21:E22"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="F25:H25"/>
@@ -1289,37 +1314,28 @@
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="F24:H24"/>
     <mergeCell ref="I24:K24"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:C22"/>
-    <mergeCell ref="D21:E22"/>
-    <mergeCell ref="F21:H22"/>
-    <mergeCell ref="I21:K22"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="M9:N10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="G16:H16"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B23" r:id="rId1" display="http://localhost:3000/signin"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/document/testcase/TestCaseLogin.xlsx
+++ b/document/testcase/TestCaseLogin.xlsx
@@ -158,7 +158,7 @@
     <t>Enable unikey</t>
   </si>
   <si>
-    <t>Navigate to   http://localhost:3000/signin</t>
+    <t>Navigate to   http://localhost:3000/product/60a86720f5509521703d68d8</t>
   </si>
 </sst>
 </file>
@@ -418,54 +418,74 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -477,56 +497,36 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -813,7 +813,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="B23" sqref="B23:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -823,49 +823,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="16"/>
       <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="27" t="s">
+      <c r="E1" s="16"/>
+      <c r="F1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="28"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="18"/>
       <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="45" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="35"/>
-      <c r="J2" s="49" t="s">
+      <c r="I2" s="16"/>
+      <c r="J2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="50"/>
+      <c r="K2" s="21"/>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -883,10 +883,10 @@
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="44"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="5"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -913,29 +913,29 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="44"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="44"/>
-      <c r="F6" s="46">
+      <c r="E6" s="23"/>
+      <c r="F6" s="24">
         <v>44382</v>
       </c>
-      <c r="G6" s="47"/>
-      <c r="H6" s="45" t="s">
+      <c r="G6" s="25"/>
+      <c r="H6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="44"/>
-      <c r="J6" s="48" t="s">
+      <c r="I6" s="23"/>
+      <c r="J6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="48"/>
+      <c r="K6" s="14"/>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -956,116 +956,116 @@
       <c r="A8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
       <c r="E8" s="10"/>
       <c r="F8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>1</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="28"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="18">
+      <c r="F9" s="46">
         <v>1</v>
       </c>
-      <c r="G9" s="41" t="s">
+      <c r="G9" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="42"/>
-      <c r="I9" s="15" t="s">
+      <c r="H9" s="33"/>
+      <c r="I9" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="15"/>
-      <c r="K9" s="16"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="35"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
     </row>
     <row r="10" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>2</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="28"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="14" t="s">
+      <c r="F10" s="47"/>
+      <c r="G10" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15" t="s">
+      <c r="H10" s="34"/>
+      <c r="I10" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="16"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="35"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>3</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="28"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="20">
+      <c r="F11" s="48">
         <v>2</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15" t="s">
+      <c r="H11" s="34"/>
+      <c r="I11" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="J11" s="15"/>
-      <c r="K11" s="16"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="35"/>
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>4</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="14" t="s">
+      <c r="F12" s="49"/>
+      <c r="G12" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15" t="s">
+      <c r="H12" s="34"/>
+      <c r="I12" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="15"/>
-      <c r="K12" s="16"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="35"/>
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1074,59 +1074,59 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="20">
+      <c r="F13" s="48">
         <v>3</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15" t="s">
+      <c r="H13" s="34"/>
+      <c r="I13" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="J13" s="15"/>
-      <c r="K13" s="16"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="35"/>
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F14" s="21"/>
-      <c r="G14" s="14" t="s">
+      <c r="F14" s="49"/>
+      <c r="G14" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15" t="s">
+      <c r="H14" s="34"/>
+      <c r="I14" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="J14" s="15"/>
-      <c r="K14" s="16"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="35"/>
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="F15" s="22">
+      <c r="F15" s="50">
         <v>4</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15" t="s">
+      <c r="H15" s="34"/>
+      <c r="I15" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="J15" s="15"/>
-      <c r="K15" s="16"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="35"/>
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F16" s="23"/>
-      <c r="G16" s="14" t="s">
+      <c r="F16" s="51"/>
+      <c r="G16" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15" t="s">
+      <c r="H16" s="34"/>
+      <c r="I16" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="J16" s="15"/>
-      <c r="K16" s="16"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="35"/>
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -1167,153 +1167,112 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="33" t="s">
+      <c r="C21" s="37"/>
+      <c r="D21" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="30" t="s">
+      <c r="E21" s="40"/>
+      <c r="F21" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="30" t="s">
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="31"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>1</v>
       </c>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="24" t="s">
+      <c r="C23" s="44"/>
+      <c r="D23" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="26" t="s">
+      <c r="E23" s="41"/>
+      <c r="F23" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G23" s="27"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="26" t="s">
+      <c r="G23" s="17"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="J23" s="27"/>
-      <c r="K23" s="28"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="18"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>2</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="24" t="s">
+      <c r="C24" s="42"/>
+      <c r="D24" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="24"/>
-      <c r="F24" s="26" t="s">
+      <c r="E24" s="41"/>
+      <c r="F24" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="27"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="26" t="s">
+      <c r="G24" s="17"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="J24" s="27"/>
-      <c r="K24" s="28"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="18"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
         <v>3</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="24" t="s">
+      <c r="C25" s="42"/>
+      <c r="D25" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="24"/>
-      <c r="F25" s="26" t="s">
+      <c r="E25" s="41"/>
+      <c r="F25" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G25" s="27"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="26" t="s">
+      <c r="G25" s="17"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="J25" s="27"/>
-      <c r="K25" s="28"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="F21:H22"/>
-    <mergeCell ref="I21:K22"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:C22"/>
-    <mergeCell ref="D21:E22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
     <mergeCell ref="M9:N10"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="F11:F12"/>
@@ -1330,7 +1289,48 @@
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="I15:K15"/>
     <mergeCell ref="I16:K16"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:C22"/>
+    <mergeCell ref="D21:E22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F21:H22"/>
+    <mergeCell ref="I21:K22"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
     <mergeCell ref="G16:H16"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B23" r:id="rId1" display="http://localhost:3000/signin"/>
